--- a/OpenMP/racunanje_ubrzanja_programa_openmp.xlsx
+++ b/OpenMP/racunanje_ubrzanja_programa_openmp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saren\OneDrive\Documents\ETF\7. semestar\Multiprocesorski sistemi\GitHub_Domaci\Multiprocessing_Systems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saren\OneDrive\Documents\ETF\7. semestar\Multiprocesorski sistemi\GitHub_Domaci\Multiprocessing_Systems\OpenMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C47CAC9-C45D-4184-A1DB-5AE665D4B596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83666BD8-B442-4144-93FE-2E140688AFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{542EF58D-DF3B-4DC1-9ED9-86B8F9D4C27E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{542EF58D-DF3B-4DC1-9ED9-86B8F9D4C27E}"/>
   </bookViews>
   <sheets>
     <sheet name="Zadatak 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Zadatak 5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -646,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A4148C-DD59-4CBA-BB95-E849BFFB52F1}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2550,8 +2549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2694F033-34E1-4EEB-8457-3F28174778D1}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4026,7 +4025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787228F6-0D13-4005-87D1-A5C6EC78D77F}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -4944,6 +4943,9 @@
     <mergeCell ref="D3:D7"/>
     <mergeCell ref="F3:F7"/>
     <mergeCell ref="H3:H7"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="L11:L15"/>
     <mergeCell ref="A17:L17"/>
     <mergeCell ref="A25:L25"/>
     <mergeCell ref="A33:L33"/>
@@ -4960,9 +4962,6 @@
     <mergeCell ref="E19:E23"/>
     <mergeCell ref="H19:H23"/>
     <mergeCell ref="K19:K23"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="L11:L15"/>
     <mergeCell ref="C35:C39"/>
     <mergeCell ref="C27:C31"/>
     <mergeCell ref="L19:L23"/>
